--- a/vincoli2.xlsx
+++ b/vincoli2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="138">
   <si>
     <t>giocatore</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>1 allenamento da 60'</t>
+  </si>
+  <si>
+    <t>da 15:30 a 16:30</t>
   </si>
   <si>
     <t>1 allenamento da 90'</t>
@@ -836,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -879,28 +882,28 @@
         <v>2005</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
@@ -914,25 +917,25 @@
         <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
@@ -943,16 +946,16 @@
         <v>2014</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>13</v>
@@ -975,28 +978,28 @@
         <v>2008</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="H6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="J6" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
@@ -1007,28 +1010,28 @@
         <v>2005</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
@@ -1042,19 +1045,19 @@
         <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
@@ -1072,25 +1075,25 @@
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
@@ -1103,19 +1106,19 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>13</v>
@@ -1129,28 +1132,28 @@
         <v>2012</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="J11" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
@@ -1164,10 +1167,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>13</v>
@@ -1193,22 +1196,22 @@
         <v>2014</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>13</v>
@@ -1228,25 +1231,25 @@
         <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
@@ -1257,28 +1260,28 @@
         <v>2005</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
@@ -1289,28 +1292,28 @@
         <v>2010</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
@@ -1321,10 +1324,10 @@
         <v>2010</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>13</v>
@@ -1336,13 +1339,13 @@
         <v>13</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
@@ -1353,19 +1356,19 @@
         <v>2012</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>13</v>
@@ -1385,25 +1388,25 @@
         <v>2012</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>13</v>
@@ -1417,25 +1420,25 @@
         <v>2015</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="H20" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>13</v>
@@ -1449,25 +1452,25 @@
         <v>2015</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>13</v>
@@ -1481,28 +1484,28 @@
         <v>2008</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
@@ -1513,16 +1516,16 @@
         <v>2006</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>13</v>
@@ -1531,10 +1534,10 @@
         <v>13</v>
       </c>
       <c r="I23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
@@ -1548,22 +1551,22 @@
         <v>14</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>13</v>
@@ -1577,16 +1580,16 @@
         <v>2011</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -1595,10 +1598,10 @@
         <v>13</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
@@ -1612,25 +1615,25 @@
         <v>14</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
@@ -1641,25 +1644,25 @@
         <v>2010</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>13</v>
@@ -1673,25 +1676,25 @@
         <v>2008</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="H28" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>13</v>
@@ -1708,25 +1711,25 @@
         <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
@@ -1740,25 +1743,25 @@
         <v>14</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
@@ -1788,22 +1791,22 @@
         <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>13</v>
@@ -1820,22 +1823,22 @@
         <v>14</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>13</v>
@@ -1849,28 +1852,28 @@
         <v>2012</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="J34" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
@@ -1881,28 +1884,28 @@
         <v>2015</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="G35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="J35" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
@@ -1916,19 +1919,19 @@
         <v>14</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>13</v>
@@ -1945,25 +1948,25 @@
         <v>2010</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>13</v>
@@ -1977,28 +1980,28 @@
         <v>2005</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
@@ -2009,28 +2012,28 @@
         <v>2009</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
@@ -2041,28 +2044,28 @@
         <v>2011</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
@@ -2076,22 +2079,22 @@
         <v>14</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>13</v>
@@ -2108,22 +2111,22 @@
         <v>14</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>13</v>
@@ -2137,28 +2140,28 @@
         <v>2006</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
@@ -2169,22 +2172,22 @@
         <v>2013</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>13</v>
@@ -2201,28 +2204,28 @@
         <v>2010</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
@@ -2236,25 +2239,25 @@
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
@@ -2268,19 +2271,19 @@
         <v>14</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>13</v>
@@ -2297,22 +2300,22 @@
         <v>2015</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>13</v>
@@ -2329,22 +2332,22 @@
         <v>2012</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>13</v>
@@ -2364,16 +2367,16 @@
         <v>14</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>13</v>
@@ -2393,28 +2396,28 @@
         <v>2016</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
@@ -2428,22 +2431,22 @@
         <v>14</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>13</v>
@@ -2457,19 +2460,19 @@
         <v>2012</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>13</v>
@@ -2489,28 +2492,28 @@
         <v>2008</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
@@ -2521,25 +2524,25 @@
         <v>2013</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G55" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I55" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="J55" s="6" t="s">
         <v>13</v>
@@ -2553,28 +2556,28 @@
         <v>2007</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
@@ -2585,16 +2588,16 @@
         <v>2012</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>13</v>
@@ -2603,7 +2606,7 @@
         <v>13</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J57" s="6" t="s">
         <v>13</v>
@@ -2617,13 +2620,13 @@
         <v>2010</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>13</v>
@@ -2632,7 +2635,7 @@
         <v>13</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>13</v>
@@ -2649,28 +2652,28 @@
         <v>2007</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
@@ -2684,16 +2687,16 @@
         <v>14</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>13</v>
@@ -2713,28 +2716,28 @@
         <v>2011</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
@@ -2745,28 +2748,28 @@
         <v>2009</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
@@ -2777,25 +2780,25 @@
         <v>2012</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>13</v>
@@ -2809,28 +2812,28 @@
         <v>2010</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
@@ -2841,28 +2844,28 @@
         <v>2010</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H65" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
@@ -2873,18 +2876,18 @@
         <v>2012</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6" t="s">
@@ -2902,25 +2905,25 @@
         <v>14</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
@@ -2931,28 +2934,28 @@
         <v>2006</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
@@ -2963,25 +2966,25 @@
         <v>2005</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J69" s="6" t="s">
         <v>13</v>
@@ -3071,7 +3074,7 @@
         <v>2005</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>12</v>
@@ -3158,7 +3161,7 @@
         <v>2008</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
@@ -3187,7 +3190,7 @@
         <v>2005</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>12</v>
@@ -3219,16 +3222,16 @@
         <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
@@ -3246,22 +3249,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
@@ -3272,25 +3275,25 @@
         <v>2012</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
@@ -3304,7 +3307,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>13</v>
@@ -3330,19 +3333,19 @@
         <v>2014</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>13</v>
@@ -3362,22 +3365,22 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
@@ -3388,25 +3391,25 @@
         <v>2005</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
@@ -3417,25 +3420,25 @@
         <v>2010</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
@@ -3446,7 +3449,7 @@
         <v>2010</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>13</v>
@@ -3458,13 +3461,13 @@
         <v>13</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
@@ -3475,16 +3478,16 @@
         <v>2012</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>13</v>
@@ -3504,22 +3507,22 @@
         <v>2012</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>13</v>
@@ -3533,22 +3536,22 @@
         <v>2015</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="H19" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>13</v>
@@ -3562,22 +3565,22 @@
         <v>2015</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>13</v>
@@ -3591,25 +3594,25 @@
         <v>2008</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
@@ -3620,13 +3623,13 @@
         <v>2006</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>13</v>
@@ -3638,7 +3641,7 @@
         <v>13</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
@@ -3652,19 +3655,19 @@
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>13</v>
@@ -3678,13 +3681,13 @@
         <v>2011</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>13</v>
@@ -3693,10 +3696,10 @@
         <v>13</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
@@ -3713,7 +3716,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>13</v>
@@ -3725,7 +3728,7 @@
         <v>13</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
@@ -3736,22 +3739,22 @@
         <v>2010</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>13</v>
@@ -3765,22 +3768,22 @@
         <v>2008</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>13</v>
@@ -3797,22 +3800,22 @@
         <v>14</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
@@ -3826,22 +3829,22 @@
         <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
@@ -3855,19 +3858,19 @@
         <v>14</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>13</v>
@@ -3884,19 +3887,19 @@
         <v>14</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>13</v>
@@ -3910,25 +3913,25 @@
         <v>2012</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
@@ -3939,25 +3942,25 @@
         <v>2015</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
@@ -3971,16 +3974,16 @@
         <v>14</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>13</v>
@@ -3997,22 +4000,22 @@
         <v>2010</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>13</v>
@@ -4026,25 +4029,25 @@
         <v>2005</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
@@ -4055,25 +4058,25 @@
         <v>2009</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
@@ -4084,25 +4087,25 @@
         <v>2011</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
@@ -4116,19 +4119,19 @@
         <v>14</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>13</v>
@@ -4145,19 +4148,19 @@
         <v>14</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>13</v>
@@ -4171,25 +4174,25 @@
         <v>2006</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
@@ -4203,16 +4206,16 @@
         <v>14</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>13</v>
@@ -4229,25 +4232,25 @@
         <v>2010</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
@@ -4261,22 +4264,22 @@
         <v>14</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
@@ -4293,13 +4296,13 @@
         <v>13</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>13</v>
@@ -4316,19 +4319,19 @@
         <v>2015</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>13</v>
@@ -4345,19 +4348,19 @@
         <v>2012</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>13</v>
@@ -4377,13 +4380,13 @@
         <v>14</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>13</v>
@@ -4403,25 +4406,25 @@
         <v>2016</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
@@ -4438,16 +4441,16 @@
         <v>13</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>13</v>
@@ -4461,16 +4464,16 @@
         <v>2012</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>13</v>
@@ -4490,25 +4493,25 @@
         <v>2008</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
@@ -4519,22 +4522,22 @@
         <v>2013</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>13</v>
@@ -4548,25 +4551,25 @@
         <v>2007</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
@@ -4577,13 +4580,13 @@
         <v>2012</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>13</v>
@@ -4592,7 +4595,7 @@
         <v>13</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>13</v>
@@ -4606,10 +4609,10 @@
         <v>2010</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>13</v>
@@ -4618,7 +4621,7 @@
         <v>13</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>13</v>
@@ -4638,22 +4641,22 @@
         <v>14</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
@@ -4670,10 +4673,10 @@
         <v>13</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>13</v>
@@ -4693,25 +4696,25 @@
         <v>2011</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
@@ -4722,25 +4725,25 @@
         <v>2009</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
@@ -4754,19 +4757,19 @@
         <v>14</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>13</v>
@@ -4780,25 +4783,25 @@
         <v>2010</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D62" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="H62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
@@ -4809,25 +4812,25 @@
         <v>2010</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
@@ -4838,15 +4841,15 @@
         <v>2012</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6" t="s">
@@ -4864,22 +4867,22 @@
         <v>14</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
@@ -4890,25 +4893,25 @@
         <v>2006</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
@@ -4919,22 +4922,22 @@
         <v>2005</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>13</v>
@@ -4974,7 +4977,7 @@
     <col min="10" max="10" style="9" width="22.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4996,7 +4999,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -5020,7 +5023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -5052,7 +5055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -5066,7 +5069,7 @@
         <v>60</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>13</v>
@@ -5084,7 +5087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -5092,13 +5095,13 @@
         <v>2014</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4">
         <v>90</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>13</v>
@@ -5116,7 +5119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -5124,13 +5127,13 @@
         <v>2008</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4">
         <v>90</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>13</v>
@@ -5145,10 +5148,10 @@
         <v>13</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -5180,7 +5183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -5188,16 +5191,16 @@
         <v>2014</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4">
         <v>90</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>13</v>
@@ -5206,13 +5209,13 @@
         <v>13</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -5244,7 +5247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -5252,31 +5255,31 @@
         <v>2012</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4">
         <v>90</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="J10" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -5308,7 +5311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>2014</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4">
         <v>60</v>
@@ -5325,13 +5328,13 @@
         <v>13</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>13</v>
@@ -5340,7 +5343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -5348,31 +5351,31 @@
         <v>2015</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4">
         <v>90</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -5380,31 +5383,31 @@
         <v>2005</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4">
         <v>60</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -5412,31 +5415,31 @@
         <v>2010</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4">
         <v>90</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -5444,7 +5447,7 @@
         <v>2010</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4">
         <v>90</v>
@@ -5459,16 +5462,16 @@
         <v>13</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -5476,19 +5479,19 @@
         <v>2012</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4">
         <v>60</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>13</v>
@@ -5500,7 +5503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -5508,31 +5511,31 @@
         <v>2012</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="4">
         <v>90</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -5540,7 +5543,7 @@
         <v>2015</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" s="4">
         <v>60</v>
@@ -5549,22 +5552,22 @@
         <v>13</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="I19" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -5572,31 +5575,31 @@
         <v>2015</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="4">
         <v>60</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -5604,31 +5607,31 @@
         <v>2008</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4">
         <v>90</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -5636,16 +5639,16 @@
         <v>2006</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4">
         <v>60</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -5657,10 +5660,10 @@
         <v>13</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -5668,31 +5671,31 @@
         <v>2018</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="4">
         <v>90</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -5700,7 +5703,7 @@
         <v>2011</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" s="4">
         <v>60</v>
@@ -5709,7 +5712,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -5718,13 +5721,13 @@
         <v>13</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -5732,7 +5735,7 @@
         <v>2014</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4">
         <v>90</v>
@@ -5741,7 +5744,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -5753,10 +5756,10 @@
         <v>13</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -5764,31 +5767,31 @@
         <v>2010</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" s="4">
         <v>60</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -5796,31 +5799,31 @@
         <v>2008</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" s="4">
         <v>90</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -5834,25 +5837,25 @@
         <v>60</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -5860,31 +5863,31 @@
         <v>2010</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" s="4">
         <v>90</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -5892,7 +5895,7 @@
         <v>2015</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" s="4">
         <v>90</v>
@@ -5901,22 +5904,22 @@
         <v>13</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -5930,19 +5933,19 @@
         <v>60</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>13</v>
@@ -5956,28 +5959,28 @@
         <v>2012</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" s="4">
         <v>90</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
@@ -5988,25 +5991,25 @@
         <v>2015</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="4">
         <v>90</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>13</v>
@@ -6020,7 +6023,7 @@
         <v>2015</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" s="4">
         <v>90</v>
@@ -6032,10 +6035,10 @@
         <v>13</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>13</v>
@@ -6052,25 +6055,25 @@
         <v>2010</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" s="4">
         <v>60</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>13</v>
@@ -6084,25 +6087,25 @@
         <v>2005</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" s="4">
         <v>90</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>13</v>
@@ -6116,7 +6119,7 @@
         <v>2009</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="4">
         <v>90</v>
@@ -6128,16 +6131,16 @@
         <v>13</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
@@ -6148,28 +6151,28 @@
         <v>2011</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" s="4">
         <v>60</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
@@ -6186,19 +6189,19 @@
         <v>60</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>13</v>
@@ -6218,19 +6221,19 @@
         <v>60</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>13</v>
@@ -6244,16 +6247,16 @@
         <v>2006</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41" s="4">
         <v>90</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>13</v>
@@ -6262,10 +6265,10 @@
         <v>13</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
@@ -6282,16 +6285,16 @@
         <v>60</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>13</v>
@@ -6308,28 +6311,28 @@
         <v>2010</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D43" s="4">
         <v>90</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
@@ -6346,22 +6349,22 @@
         <v>60</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -6381,13 +6384,13 @@
         <v>13</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>13</v>
@@ -6404,28 +6407,28 @@
         <v>2015</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" s="4">
         <v>90</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
@@ -6436,28 +6439,28 @@
         <v>2012</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D47" s="4">
         <v>90</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
@@ -6468,16 +6471,16 @@
         <v>2011</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" s="4">
         <v>90</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>13</v>
@@ -6489,7 +6492,7 @@
         <v>13</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
@@ -6500,28 +6503,28 @@
         <v>2016</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D49" s="4">
         <v>60</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -6532,7 +6535,7 @@
         <v>2017</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" s="4">
         <v>90</v>
@@ -6544,16 +6547,16 @@
         <v>13</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -6564,28 +6567,28 @@
         <v>2012</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D51" s="4">
         <v>90</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -6596,28 +6599,28 @@
         <v>2008</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D52" s="4">
         <v>90</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
@@ -6628,25 +6631,25 @@
         <v>2013</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" s="4">
         <v>60</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J53" s="6" t="s">
         <v>13</v>
@@ -6660,25 +6663,25 @@
         <v>2007</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" s="4">
         <v>60</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>13</v>
@@ -6692,7 +6695,7 @@
         <v>2012</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D55" s="4">
         <v>90</v>
@@ -6701,7 +6704,7 @@
         <v>13</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>13</v>
@@ -6710,7 +6713,7 @@
         <v>13</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J55" s="6" t="s">
         <v>13</v>
@@ -6724,7 +6727,7 @@
         <v>2010</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D56" s="4">
         <v>90</v>
@@ -6733,19 +6736,19 @@
         <v>13</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
@@ -6762,22 +6765,22 @@
         <v>60</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
@@ -6797,10 +6800,10 @@
         <v>13</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>13</v>
@@ -6820,28 +6823,28 @@
         <v>2011</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D59" s="4">
         <v>90</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
@@ -6852,28 +6855,28 @@
         <v>2009</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D60" s="4">
         <v>90</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
@@ -6884,25 +6887,25 @@
         <v>2012</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D61" s="4">
         <v>90</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J61" s="6" t="s">
         <v>13</v>
@@ -6916,28 +6919,28 @@
         <v>2010</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D62" s="4">
         <v>60</v>
       </c>
       <c r="E62" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="I62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
@@ -6948,28 +6951,28 @@
         <v>2010</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D63" s="4">
         <v>60</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
@@ -6980,18 +6983,18 @@
         <v>2012</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D64" s="4">
         <v>60</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="6" t="s">
@@ -7006,28 +7009,28 @@
         <v>2006</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D65" s="4">
         <v>90</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
@@ -7038,28 +7041,28 @@
         <v>2006</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D66" s="4">
         <v>90</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
@@ -7070,25 +7073,25 @@
         <v>2005</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D67" s="4">
         <v>90</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>13</v>

--- a/vincoli2.xlsx
+++ b/vincoli2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="137">
   <si>
     <t>giocatore</t>
   </si>
@@ -66,124 +66,121 @@
     <t>da 15:30 a 16:30</t>
   </si>
   <si>
+    <t>2 allenamento da 90'</t>
+  </si>
+  <si>
+    <t>da 15:30 a 17:00</t>
+  </si>
+  <si>
+    <t>2 allenamenti da 90'</t>
+  </si>
+  <si>
+    <t>2 allenamenti da 60'</t>
+  </si>
+  <si>
+    <t>da 16:00 in poi</t>
+  </si>
+  <si>
+    <t>3 allenamenti da 60'</t>
+  </si>
+  <si>
+    <t>tutto il pome</t>
+  </si>
+  <si>
+    <t>3 allenamenti da 90'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tutto il giorno </t>
+  </si>
+  <si>
+    <t>da 14:00 a 17:00</t>
+  </si>
+  <si>
+    <t>da 15:30 a 18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">da 15:30 a 18:30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">da 16:00 a 18:00 </t>
+  </si>
+  <si>
+    <t>da 16:00 a 18:00</t>
+  </si>
+  <si>
+    <t>da 16:00 a 17:00</t>
+  </si>
+  <si>
+    <t>da 16:00 a 19:00</t>
+  </si>
+  <si>
+    <t>da 14:00 a 16:00</t>
+  </si>
+  <si>
+    <t>4 allenamento da 90'</t>
+  </si>
+  <si>
+    <t>tutto il giorno</t>
+  </si>
+  <si>
+    <t>da 14:00 a 19:00</t>
+  </si>
+  <si>
+    <t>da 09:00 a 12:00</t>
+  </si>
+  <si>
+    <t>da 14:00 in poi</t>
+  </si>
+  <si>
     <t>1 allenamento da 90'</t>
   </si>
   <si>
+    <t>da 14:00 a 15:30</t>
+  </si>
+  <si>
+    <t>da 10:30 a 12:00</t>
+  </si>
+  <si>
+    <t>da 17:00 in poi</t>
+  </si>
+  <si>
     <t>da 15:30 in poi</t>
   </si>
   <si>
-    <t>2 allenamenti da 90'</t>
-  </si>
-  <si>
-    <t>2 allenamento da 90'</t>
-  </si>
-  <si>
-    <t>da 09:00 a 12:00</t>
-  </si>
-  <si>
-    <t>3 allenamenti da 90'</t>
-  </si>
-  <si>
-    <t>da 17:00 in poi</t>
+    <t>da 15:00 in poi</t>
+  </si>
+  <si>
+    <t>da 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>da 14:00 a 18:00</t>
+  </si>
+  <si>
+    <t>4 allenamenti da 90'</t>
+  </si>
+  <si>
+    <t>da 17:00 a 18:30</t>
+  </si>
+  <si>
+    <t>1 allenamenti da 90'</t>
+  </si>
+  <si>
+    <t>da 14:00 a 15:00</t>
+  </si>
+  <si>
+    <t>da 19:00 a 20:00</t>
+  </si>
+  <si>
+    <t>da 15:00 a 20:00</t>
+  </si>
+  <si>
+    <t>da 15:00 a 19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">da 16:00 in poi </t>
   </si>
   <si>
     <t xml:space="preserve">da 17:00 in poi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">da 09:00 a 10:30 </t>
-  </si>
-  <si>
-    <t>tutto il giorno</t>
-  </si>
-  <si>
-    <t>2 allenamenti da 60'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">da 16:00 in poi </t>
-  </si>
-  <si>
-    <t>da 16:00 in poi</t>
-  </si>
-  <si>
-    <t>tutto il pome</t>
-  </si>
-  <si>
-    <t>3 allenamenti da 60'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tutto il giorno </t>
-  </si>
-  <si>
-    <t>da 14:00 a 17:00</t>
-  </si>
-  <si>
-    <t>da 15:30 a 18:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">da 15:30 a 18:30 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">da 16:00 a 18:00 </t>
-  </si>
-  <si>
-    <t>da 16:00 a 18:00</t>
-  </si>
-  <si>
-    <t>da 16:00 a 17:00</t>
-  </si>
-  <si>
-    <t>da 16:00 a 19:00</t>
-  </si>
-  <si>
-    <t>da 14:00 a 16:00</t>
-  </si>
-  <si>
-    <t>4 allenamento da 90'</t>
-  </si>
-  <si>
-    <t>da 14:00 a 19:00</t>
-  </si>
-  <si>
-    <t>da 15:30 a 17:00</t>
-  </si>
-  <si>
-    <t>da 14:00 in poi</t>
-  </si>
-  <si>
-    <t>da 14:00 a 15:30</t>
-  </si>
-  <si>
-    <t>da 10:30 a 12:00</t>
-  </si>
-  <si>
-    <t>da 15:00 in poi</t>
-  </si>
-  <si>
-    <t>da 15:00 a 18:00</t>
-  </si>
-  <si>
-    <t>da 14:00 a 18:00</t>
-  </si>
-  <si>
-    <t>4 allenamenti da 90'</t>
-  </si>
-  <si>
-    <t>da 17:00 a 18:30</t>
-  </si>
-  <si>
-    <t>1 allenamenti da 90'</t>
-  </si>
-  <si>
-    <t>da 14:00 a 15:00</t>
-  </si>
-  <si>
-    <t>da 19:00 a 20:00</t>
-  </si>
-  <si>
-    <t>da 15:00 a 20:00</t>
-  </si>
-  <si>
-    <t>da 15:00 a 19:00</t>
   </si>
   <si>
     <t xml:space="preserve">da 18:00 in poi </t>
@@ -839,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -885,25 +882,25 @@
         <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
@@ -917,25 +914,25 @@
         <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
@@ -946,16 +943,16 @@
         <v>2014</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>13</v>
@@ -981,25 +978,25 @@
         <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="G6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
@@ -1013,25 +1010,25 @@
         <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
@@ -1045,19 +1042,19 @@
         <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
@@ -1075,25 +1072,25 @@
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
@@ -1106,19 +1103,19 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>13</v>
@@ -1135,25 +1132,25 @@
         <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="I11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
@@ -1167,10 +1164,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>13</v>
@@ -1196,22 +1193,22 @@
         <v>2014</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>13</v>
@@ -1231,25 +1228,25 @@
         <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
@@ -1260,28 +1257,28 @@
         <v>2005</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
@@ -1292,28 +1289,28 @@
         <v>2010</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="H16" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
@@ -1324,10 +1321,10 @@
         <v>2010</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>13</v>
@@ -1339,13 +1336,13 @@
         <v>13</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
@@ -1356,19 +1353,19 @@
         <v>2012</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>13</v>
@@ -1391,22 +1388,22 @@
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>13</v>
@@ -1420,25 +1417,25 @@
         <v>2015</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>13</v>
@@ -1452,25 +1449,25 @@
         <v>2015</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>13</v>
@@ -1484,28 +1481,28 @@
         <v>2008</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
@@ -1519,25 +1516,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="J23" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
@@ -1551,22 +1548,22 @@
         <v>14</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>13</v>
@@ -1580,28 +1577,28 @@
         <v>2011</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
@@ -1615,13 +1612,13 @@
         <v>14</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -1633,7 +1630,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
@@ -1644,25 +1641,25 @@
         <v>2010</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>13</v>
@@ -1679,22 +1676,22 @@
         <v>18</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>13</v>
@@ -1711,25 +1708,25 @@
         <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
@@ -1743,25 +1740,25 @@
         <v>14</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
@@ -1791,22 +1788,22 @@
         <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>13</v>
@@ -1823,22 +1820,22 @@
         <v>14</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>13</v>
@@ -1855,25 +1852,25 @@
         <v>18</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="I34" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
@@ -1884,28 +1881,28 @@
         <v>2015</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="I35" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
@@ -1919,19 +1916,19 @@
         <v>14</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E36" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="H36" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>13</v>
@@ -1948,25 +1945,25 @@
         <v>2010</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>13</v>
@@ -1980,28 +1977,28 @@
         <v>2005</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
@@ -2012,28 +2009,28 @@
         <v>2009</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
@@ -2044,28 +2041,28 @@
         <v>2011</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
@@ -2079,22 +2076,22 @@
         <v>14</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>13</v>
@@ -2111,22 +2108,22 @@
         <v>14</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>13</v>
@@ -2143,25 +2140,25 @@
         <v>18</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
@@ -2172,22 +2169,22 @@
         <v>2013</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E44" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="H44" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>13</v>
@@ -2204,28 +2201,28 @@
         <v>2010</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E45" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="H45" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="J45" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
@@ -2239,25 +2236,25 @@
         <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
@@ -2271,19 +2268,19 @@
         <v>14</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>13</v>
@@ -2300,22 +2297,22 @@
         <v>2015</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>13</v>
@@ -2332,22 +2329,22 @@
         <v>2012</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>13</v>
@@ -2367,16 +2364,16 @@
         <v>14</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>13</v>
@@ -2396,28 +2393,28 @@
         <v>2016</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
@@ -2431,22 +2428,22 @@
         <v>14</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>13</v>
@@ -2463,16 +2460,16 @@
         <v>18</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>13</v>
@@ -2492,28 +2489,28 @@
         <v>2008</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
@@ -2524,25 +2521,25 @@
         <v>2013</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J55" s="6" t="s">
         <v>13</v>
@@ -2556,28 +2553,28 @@
         <v>2007</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
@@ -2591,22 +2588,22 @@
         <v>18</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="J57" s="6" t="s">
         <v>13</v>
@@ -2623,10 +2620,10 @@
         <v>18</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>13</v>
@@ -2635,7 +2632,7 @@
         <v>13</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>13</v>
@@ -2652,28 +2649,28 @@
         <v>2007</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
@@ -2687,16 +2684,16 @@
         <v>14</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>13</v>
@@ -2716,28 +2713,28 @@
         <v>2011</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
@@ -2748,28 +2745,28 @@
         <v>2009</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
@@ -2780,25 +2777,25 @@
         <v>2012</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>13</v>
@@ -2815,25 +2812,25 @@
         <v>18</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E64" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="6" t="s">
+      <c r="H64" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H64" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="I64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
@@ -2844,28 +2841,28 @@
         <v>2010</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E65" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="I65" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
@@ -2879,15 +2876,15 @@
         <v>18</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6" t="s">
@@ -2905,25 +2902,25 @@
         <v>14</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
@@ -2937,25 +2934,25 @@
         <v>18</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
@@ -2966,25 +2963,25 @@
         <v>2005</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E69" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="H69" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J69" s="6" t="s">
         <v>13</v>
@@ -3074,7 +3071,7 @@
         <v>2005</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>12</v>
@@ -3161,7 +3158,7 @@
         <v>2008</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
@@ -3190,7 +3187,7 @@
         <v>2005</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>12</v>
@@ -3222,16 +3219,16 @@
         <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
@@ -3249,22 +3246,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
@@ -3275,25 +3272,25 @@
         <v>2012</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
@@ -3307,7 +3304,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>13</v>
@@ -3333,19 +3330,19 @@
         <v>2014</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>13</v>
@@ -3365,22 +3362,22 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
@@ -3391,25 +3388,25 @@
         <v>2005</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
@@ -3420,25 +3417,25 @@
         <v>2010</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
@@ -3449,7 +3446,7 @@
         <v>2010</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>13</v>
@@ -3461,13 +3458,13 @@
         <v>13</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
@@ -3478,16 +3475,16 @@
         <v>2012</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>13</v>
@@ -3507,22 +3504,22 @@
         <v>2012</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>13</v>
@@ -3536,22 +3533,22 @@
         <v>2015</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>13</v>
@@ -3565,22 +3562,22 @@
         <v>2015</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>13</v>
@@ -3594,25 +3591,25 @@
         <v>2008</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
@@ -3623,13 +3620,13 @@
         <v>2006</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>13</v>
@@ -3641,7 +3638,7 @@
         <v>13</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
@@ -3655,19 +3652,19 @@
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>13</v>
@@ -3681,13 +3678,13 @@
         <v>2011</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>13</v>
@@ -3696,10 +3693,10 @@
         <v>13</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
@@ -3716,7 +3713,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>13</v>
@@ -3728,7 +3725,7 @@
         <v>13</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
@@ -3739,22 +3736,22 @@
         <v>2010</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>13</v>
@@ -3768,22 +3765,22 @@
         <v>2008</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>13</v>
@@ -3800,22 +3797,22 @@
         <v>14</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
@@ -3829,22 +3826,22 @@
         <v>14</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
@@ -3858,19 +3855,19 @@
         <v>14</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>13</v>
@@ -3887,19 +3884,19 @@
         <v>14</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>13</v>
@@ -3913,25 +3910,25 @@
         <v>2012</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
@@ -3942,25 +3939,25 @@
         <v>2015</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
@@ -3974,16 +3971,16 @@
         <v>14</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>13</v>
@@ -4000,22 +3997,22 @@
         <v>2010</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>13</v>
@@ -4029,25 +4026,25 @@
         <v>2005</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
@@ -4058,25 +4055,25 @@
         <v>2009</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
@@ -4087,25 +4084,25 @@
         <v>2011</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
@@ -4119,19 +4116,19 @@
         <v>14</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>13</v>
@@ -4148,19 +4145,19 @@
         <v>14</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>13</v>
@@ -4174,25 +4171,25 @@
         <v>2006</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
@@ -4206,16 +4203,16 @@
         <v>14</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>13</v>
@@ -4232,25 +4229,25 @@
         <v>2010</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
@@ -4264,22 +4261,22 @@
         <v>14</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
@@ -4296,13 +4293,13 @@
         <v>13</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>13</v>
@@ -4319,19 +4316,19 @@
         <v>2015</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>13</v>
@@ -4348,19 +4345,19 @@
         <v>2012</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>13</v>
@@ -4380,13 +4377,13 @@
         <v>14</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>13</v>
@@ -4406,25 +4403,25 @@
         <v>2016</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
@@ -4441,16 +4438,16 @@
         <v>13</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>13</v>
@@ -4464,16 +4461,16 @@
         <v>2012</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>13</v>
@@ -4493,25 +4490,25 @@
         <v>2008</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
@@ -4522,22 +4519,22 @@
         <v>2013</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>13</v>
@@ -4551,25 +4548,25 @@
         <v>2007</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
@@ -4580,13 +4577,13 @@
         <v>2012</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>13</v>
@@ -4595,7 +4592,7 @@
         <v>13</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>13</v>
@@ -4609,10 +4606,10 @@
         <v>2010</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>13</v>
@@ -4621,7 +4618,7 @@
         <v>13</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>13</v>
@@ -4641,22 +4638,22 @@
         <v>14</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
@@ -4673,10 +4670,10 @@
         <v>13</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>13</v>
@@ -4696,25 +4693,25 @@
         <v>2011</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
@@ -4725,25 +4722,25 @@
         <v>2009</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
@@ -4757,19 +4754,19 @@
         <v>14</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>13</v>
@@ -4783,25 +4780,25 @@
         <v>2010</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
@@ -4812,25 +4809,25 @@
         <v>2010</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
@@ -4841,15 +4838,15 @@
         <v>2012</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6" t="s">
@@ -4867,22 +4864,22 @@
         <v>14</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
@@ -4893,25 +4890,25 @@
         <v>2006</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
@@ -4922,22 +4919,22 @@
         <v>2005</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="F67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>13</v>
@@ -5104,7 +5101,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>13</v>
@@ -5136,7 +5133,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>13</v>
@@ -5148,7 +5145,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -5191,16 +5188,16 @@
         <v>2014</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4">
         <v>90</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>13</v>
@@ -5209,7 +5206,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>13</v>
@@ -5255,28 +5252,28 @@
         <v>2012</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4">
         <v>90</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
@@ -5319,7 +5316,7 @@
         <v>2014</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4">
         <v>60</v>
@@ -5328,13 +5325,13 @@
         <v>13</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>13</v>
@@ -5351,28 +5348,28 @@
         <v>2015</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4">
         <v>90</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
@@ -5383,28 +5380,28 @@
         <v>2005</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4">
         <v>60</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
@@ -5415,28 +5412,28 @@
         <v>2010</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4">
         <v>90</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -5462,13 +5459,13 @@
         <v>13</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
@@ -5479,19 +5476,19 @@
         <v>2012</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4">
         <v>60</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>13</v>
@@ -5517,19 +5514,19 @@
         <v>90</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>13</v>
@@ -5543,7 +5540,7 @@
         <v>2015</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4">
         <v>60</v>
@@ -5552,16 +5549,16 @@
         <v>13</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>13</v>
@@ -5575,25 +5572,25 @@
         <v>2015</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D20" s="4">
         <v>60</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>13</v>
@@ -5607,28 +5604,28 @@
         <v>2008</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21" s="4">
         <v>90</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
@@ -5639,16 +5636,16 @@
         <v>2006</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D22" s="4">
         <v>60</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -5660,7 +5657,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
@@ -5671,25 +5668,25 @@
         <v>2018</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D23" s="4">
         <v>90</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>13</v>
@@ -5703,7 +5700,7 @@
         <v>2011</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D24" s="4">
         <v>60</v>
@@ -5712,7 +5709,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -5721,10 +5718,10 @@
         <v>13</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
@@ -5735,7 +5732,7 @@
         <v>2014</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D25" s="4">
         <v>90</v>
@@ -5744,7 +5741,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -5756,7 +5753,7 @@
         <v>13</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
@@ -5767,25 +5764,25 @@
         <v>2010</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D26" s="4">
         <v>60</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>13</v>
@@ -5805,19 +5802,19 @@
         <v>90</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>13</v>
@@ -5837,22 +5834,22 @@
         <v>60</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
@@ -5863,28 +5860,28 @@
         <v>2010</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D29" s="4">
         <v>90</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
@@ -5895,7 +5892,7 @@
         <v>2015</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D30" s="4">
         <v>90</v>
@@ -5904,16 +5901,16 @@
         <v>13</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>13</v>
@@ -5933,19 +5930,19 @@
         <v>60</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>13</v>
@@ -5959,28 +5956,28 @@
         <v>2012</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D32" s="4">
         <v>90</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
@@ -5997,19 +5994,19 @@
         <v>90</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>13</v>
@@ -6023,7 +6020,7 @@
         <v>2015</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D34" s="4">
         <v>90</v>
@@ -6035,10 +6032,10 @@
         <v>13</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>13</v>
@@ -6055,25 +6052,25 @@
         <v>2010</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D35" s="4">
         <v>60</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>13</v>
@@ -6093,19 +6090,19 @@
         <v>90</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>13</v>
@@ -6131,16 +6128,16 @@
         <v>13</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
@@ -6151,28 +6148,28 @@
         <v>2011</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D38" s="4">
         <v>60</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
@@ -6189,19 +6186,19 @@
         <v>60</v>
       </c>
       <c r="E39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>13</v>
@@ -6221,19 +6218,19 @@
         <v>60</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>13</v>
@@ -6253,10 +6250,10 @@
         <v>90</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>13</v>
@@ -6265,10 +6262,10 @@
         <v>13</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
@@ -6285,16 +6282,16 @@
         <v>60</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>13</v>
@@ -6311,28 +6308,28 @@
         <v>2010</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D43" s="4">
         <v>90</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
@@ -6349,22 +6346,22 @@
         <v>60</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -6384,13 +6381,13 @@
         <v>13</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>13</v>
@@ -6413,22 +6410,22 @@
         <v>90</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
@@ -6439,28 +6436,28 @@
         <v>2012</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D47" s="4">
         <v>90</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
@@ -6471,16 +6468,16 @@
         <v>2011</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D48" s="4">
         <v>90</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>13</v>
@@ -6492,7 +6489,7 @@
         <v>13</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
@@ -6503,28 +6500,28 @@
         <v>2016</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D49" s="4">
         <v>60</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -6535,7 +6532,7 @@
         <v>2017</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D50" s="4">
         <v>90</v>
@@ -6547,16 +6544,16 @@
         <v>13</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -6567,28 +6564,28 @@
         <v>2012</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D51" s="4">
         <v>90</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -6605,22 +6602,22 @@
         <v>90</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
@@ -6631,25 +6628,25 @@
         <v>2013</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D53" s="4">
         <v>60</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J53" s="6" t="s">
         <v>13</v>
@@ -6663,25 +6660,25 @@
         <v>2007</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D54" s="4">
         <v>60</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>13</v>
@@ -6704,7 +6701,7 @@
         <v>13</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>13</v>
@@ -6713,7 +6710,7 @@
         <v>13</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J55" s="6" t="s">
         <v>13</v>
@@ -6727,7 +6724,7 @@
         <v>2010</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D56" s="4">
         <v>90</v>
@@ -6736,19 +6733,19 @@
         <v>13</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
@@ -6765,22 +6762,22 @@
         <v>60</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
@@ -6800,10 +6797,10 @@
         <v>13</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>13</v>
@@ -6823,28 +6820,28 @@
         <v>2011</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D59" s="4">
         <v>90</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
@@ -6855,28 +6852,28 @@
         <v>2009</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D60" s="4">
         <v>90</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
@@ -6887,25 +6884,25 @@
         <v>2012</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D61" s="4">
         <v>90</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J61" s="6" t="s">
         <v>13</v>
@@ -6919,28 +6916,28 @@
         <v>2010</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D62" s="4">
         <v>60</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
@@ -6951,28 +6948,28 @@
         <v>2010</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D63" s="4">
         <v>60</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
@@ -6983,18 +6980,18 @@
         <v>2012</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D64" s="4">
         <v>60</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="6" t="s">
@@ -7009,28 +7006,28 @@
         <v>2006</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D65" s="4">
         <v>90</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
@@ -7047,22 +7044,22 @@
         <v>90</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
@@ -7073,25 +7070,25 @@
         <v>2005</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D67" s="4">
         <v>90</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>13</v>
